--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7A40FF-E413-43E6-A285-DBA17D6E4552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DD784-CBDC-4D3A-A36B-B8CACC2C20C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,11 @@
 此灼烧效果可无限叠加，并在重新施加时刷新持续时间。
 此外，你的所有灼烧效果会使你的所有基础技能的 &lt;color=#7DFFFF&gt;冷却时间&lt;/color&gt;减少0.3秒。
 每次对目标造成伤害时，它们会额外受到一次伤害判定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻提升1级，并且每击杀50个敌人额外提升1级。你的等级上限已被移除。
+如果不是你的第一个强化符文，则转而立刻提升3级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +497,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -612,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DD784-CBDC-4D3A-A36B-B8CACC2C20C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3F1478-B11C-4354-96DC-3C6615715D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   <si>
     <t>立刻提升1级，并且每击杀50个敌人额外提升1级。你的等级上限已被移除。
 如果不是你的第一个强化符文，则转而立刻提升3级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将你所有强化符文变为随机的棱彩阶强化符文（包括此符文）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -588,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3F1478-B11C-4354-96DC-3C6615715D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A7938F-868A-4176-AB9D-88D5E2D780D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将你所有强化符文变为随机的棱彩阶强化符文。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全能龙魂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,11 +119,6 @@
   </si>
   <si>
     <t>时光之智慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立刻提升1级，并且每击杀50个敌人额外提升1级。你的等级上限已被移除。
-如果是作为你的第二个强化符文，则转而立刻提升3级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,6 +142,10 @@
   </si>
   <si>
     <t>将你所有强化符文变为随机的棱彩阶强化符文（包括此符文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +496,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -526,10 +521,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -549,10 +544,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -592,13 +587,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -609,19 +604,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A7938F-868A-4176-AB9D-88D5E2D780D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E53B5C-4C04-4569-9B9A-352A3A1CD367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,70 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconBorderName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Pocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Damage_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Refresh_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Dice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Function_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_LevelUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DualBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你攻击时发射一根次级弩箭，造成40%伤害和40%效能的攻击特效。获得25%总攻击速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Universal_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Frame_Border</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -504,7 +568,7 @@
     <col min="1" max="16384" width="43.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +590,11 @@
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -549,8 +616,11 @@
       <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -572,8 +642,11 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,8 +668,11 @@
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -618,58 +694,103 @@
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E53B5C-4C04-4569-9B9A-352A3A1CD367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EE26BD-BD08-4255-B887-3FBD8DA11F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,12 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你在750范围内的每个基本方向的下一次普通攻击额外在攻击时向每次造成的目标发射 5 发箭矢，
-造成[10–50](基于等级)+(15% &lt;color=#FF8A00&gt;额外 AD&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，总计[50–250](基于等级)+(75%&lt;color=#FF8A00&gt;额外攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;(每个方向 5 秒冷却时间)。
-箭矢的伤害提高 0%–50%(基于飞行距离)，每个箭矢都可以触发施加20%攻击特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的技能命中会施加燃烧效果，持续 5 秒，造成
 [1.2–12]+(1.2%&lt;color=#C97BFF&gt;法术强度&lt;/color&gt;)+(2.8%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)的每秒 &lt;color=#C97BFF&gt;魔法伤害&lt;/color&gt;。
 此灼烧效果可无限叠加，并在重新施加时刷新持续时间。
@@ -210,6 +204,12 @@
   </si>
   <si>
     <t>Hex_Frame_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的四个方向上的下一次普通攻击额外在攻击时向每次造成的目标发射5发箭矢，
+造成{0:F0}=25+(15%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，总计{0:F0}=125+(75%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;(每个方向 5 秒冷却时间)。
+箭矢的伤害提高 0%–50%(基于飞行距离，500码达到最大增伤)，每个箭矢都可以触发施加20%攻击特效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +560,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -591,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -660,16 +660,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -680,74 +680,74 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EE26BD-BD08-4255-B887-3FBD8DA11F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EBE284-B042-4130-86BA-BD4D16B06BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,14 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的技能命中会施加燃烧效果，持续 5 秒，造成
-[1.2–12]+(1.2%&lt;color=#C97BFF&gt;法术强度&lt;/color&gt;)+(2.8%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)的每秒 &lt;color=#C97BFF&gt;魔法伤害&lt;/color&gt;。
-此灼烧效果可无限叠加，并在重新施加时刷新持续时间。
-此外，你的所有灼烧效果会使你的所有基础技能的 &lt;color=#7DFFFF&gt;冷却时间&lt;/color&gt;减少0.3秒。
-每次对目标造成伤害时，它们会额外受到一次伤害判定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立刻提升1级，并且每击杀50个敌人额外提升1级。你的等级上限已被移除。
 如果不是你的第一个强化符文，则转而立刻提升3级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,8 +200,14 @@
   </si>
   <si>
     <t>你的四个方向上的下一次普通攻击额外在攻击时向每次造成的目标发射5发箭矢，
-造成{0:F0}=25+(15%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，总计{0:F0}=125+(75%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;(每个方向 5 秒冷却时间)。
+造成{0:F0}=25+(15%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，总计{1:F0}=125+(75%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;(每个方向 5 秒冷却时间)。
 箭矢的伤害提高 0%–50%(基于飞行距离，500码达到最大增伤)，每个箭矢都可以触发施加20%攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的技能命中会施加燃烧效果，持续5秒，每秒造成
+{0:F0}=6+(1.2%&lt;color=#C97BFF&gt;法术强度&lt;/color&gt;)+(2.8%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#C97BFF&gt;魔法伤害&lt;/color&gt;。
+此灼烧效果可无限叠加，你的所有灼烧效果会使你的所有基础技能的冷却时间减少0.5秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +558,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -591,7 +589,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -617,7 +615,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -660,16 +658,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -680,74 +678,74 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EBE284-B042-4130-86BA-BD4D16B06BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B750FA-7F32-4556-B73C-BD358DA58065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,9 +199,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Task_Worglet_sDeathcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务：沃格勒特的巫师帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Task_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠光护手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JewelryGloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的技能可以暴击，获得25%暴击几率。根据你的法强获得额外暴击几率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Skill_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棱彩蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrismaticEgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每击杀200个敌人可以孵化出一个棱彩锻造器和一次刷新机会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每击杀200个敌人可以孵化出一个棱彩锻造器和一次刷新机会。
+当前击杀数：{0:D}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻提升1级，并且每击杀50个敌人额外提升1级。你的等级上限已被移除。
+如果不是你的第一个强化符文，则转而立刻提升3级。
+当前击杀数：{0:D}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Shop_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连锁闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChainLightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害时还会对其附近最近的2个敌人造成相当于这次伤害30%的真实伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性叠属性叠属性！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributesAttributesAttributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4个属性锻造器！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiantKiller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体型变小，获得移动速度，并基于敌人体型大于你的程度造成额外伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢炖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlowStew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒对附近的敌人施加一层可无限叠加的灼烧，这个效果受益于你的最大生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢踏舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TapDance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_Speed_Border</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的攻击为你提供10移动速度，可无限叠加。获得相当于你10%移动速度的攻击速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的技能可以暴击，获得{0:P0}=(25%+4.5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;)暴击几率。
+当前已造成额外伤害：{0:F1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害时还会对其附近500码内最近的2个敌人造成相当于这次伤害30%的真实伤害。
+当前已造成额外伤害：{0:F1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你攻击时发射一根次级弩箭，造成40%伤害和40%效能的攻击特效。获得25%总攻击速度。
+当前已造成额外伤害：{0:F1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体型减小75%，获得30%总移动速度加成，敌人的体型每比你大5%，则对其造成2%额外真实伤害。
+当前已造成额外伤害：{0:F1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒对附近的敌人施加一层可无限叠加的灼烧，持续5秒，每秒造成你0.35%最大生命值的魔法伤害。
+当前已造成额外伤害：{0:F1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的攻击为你提供10移动速度，可无限叠加，持续5秒。获得{0:P1}=(10%&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;)的攻击速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤里卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yorica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得相当于30%法术强度的技能急速。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=(30%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;)技能急速。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex_CoolDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质变：混沌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualitativeChange_Chaos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得两个完全随机的海克斯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MysticPunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘术冲拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你获得使你的各个技能的冷却时间减少其15%的剩余冷却时间的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时使你的各个技能的冷却时间减少其15%的剩余冷却时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1250金币，若同时持有“灭世者的死亡之帽”和“炽天使之拥”，则将其合成为装备“沃格勒特的巫师帽”，拥有更强的属性和技能效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>你的四个方向上的下一次普通攻击额外在攻击时向每次造成的目标发射5发箭矢，
 造成{0:F0}=25+(15%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，总计{1:F0}=125+(75%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;(每个方向 5 秒冷却时间)。
-箭矢的伤害提高 0%–50%(基于飞行距离，500码达到最大增伤)，每个箭矢都可以触发施加20%攻击特效。</t>
+箭矢的伤害提高 0%–50%(基于飞行距离，500码达到最大增伤)，每个箭矢都可以触发施加20%攻击特效。
+当前已造成额外伤害：{2:F1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -555,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -566,7 +783,7 @@
     <col min="1" max="16384" width="43.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +808,41 @@
       <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,8 +867,41 @@
       <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,8 +926,43 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -669,8 +987,41 @@
       <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -678,10 +1029,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -690,13 +1041,46 @@
         <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -721,8 +1105,41 @@
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -747,48 +1164,81 @@
       <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B750FA-7F32-4556-B73C-BD358DA58065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C33AEA-343F-4A55-970E-3BA4E17CCF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C33AEA-343F-4A55-970E-3BA4E17CCF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF9D04-B99D-4E12-A5F7-7A5716BDB681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,11 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的技能可以暴击，获得{0:P0}=(25%+4.5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;)暴击几率。
-当前已造成额外伤害：{0:F1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对敌人造成伤害时还会对其附近500码内最近的2个敌人造成相当于这次伤害30%的真实伤害。
 当前已造成额外伤害：{0:F1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +420,10 @@
     <t>你的技能命中会施加燃烧效果，持续5秒，每秒造成
 {0:F0}=6+(1.2%&lt;color=#C97BFF&gt;法术强度&lt;/color&gt;)+(2.8%&lt;color=#FF8A00&gt;攻击力&lt;/color&gt;)&lt;color=#C97BFF&gt;魔法伤害&lt;/color&gt;。
 此灼烧效果可无限叠加，你的所有灼烧效果会使你的所有基础技能的冷却时间减少0.5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的技能可以暴击，获得{0:P0}=(25%+4.5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;)暴击几率。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +774,7 @@
   <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -833,13 +832,13 @@
         <v>71</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -892,13 +891,13 @@
         <v>70</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -988,7 +987,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>46</v>
@@ -1012,13 +1011,13 @@
         <v>73</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1029,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1044,40 +1043,40 @@
         <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1130,7 +1129,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>32</v>

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF9D04-B99D-4E12-A5F7-7A5716BDB681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1248236A-12DA-4A3D-AB3E-4B4783651904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,11 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每秒对附近的敌人施加一层可无限叠加的灼烧，持续5秒，每秒造成你0.35%最大生命值的魔法伤害。
-当前已造成额外伤害：{0:F1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的攻击为你提供10移动速度，可无限叠加，持续5秒。获得{0:P1}=(10%&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;)的攻击速度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +419,10 @@
   </si>
   <si>
     <t>你的技能可以暴击，获得{0:P0}=(25%+4.5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;)暴击几率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒对附近的敌人施加一层可无限叠加的灼烧，持续5秒，每秒造成你0.35%最大生命值的魔法伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,8 +772,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -832,13 +834,13 @@
         <v>71</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,13 +893,13 @@
         <v>70</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -987,7 +989,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>46</v>
@@ -1011,13 +1013,13 @@
         <v>73</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,10 +1030,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1046,10 +1048,10 @@
         <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>52</v>
@@ -1064,19 +1066,19 @@
         <v>76</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1129,7 +1131,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>32</v>

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1248236A-12DA-4A3D-AB3E-4B4783651904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F27242-5F71-444B-84EC-5B61E3917F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,12 +462,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -482,12 +488,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -773,10 +785,10 @@
   <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -850,28 +862,28 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -880,7 +892,7 @@
       <c r="L2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="2" t="s">

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F27242-5F71-444B-84EC-5B61E3917F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA5E75D-E804-4296-8FE5-1F4B9F601354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,28 +803,28 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -833,7 +833,7 @@
       <c r="L1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>60</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -845,7 +845,7 @@
       <c r="P1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>79</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -904,7 +904,7 @@
       <c r="P2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>78</v>
       </c>
       <c r="R2" s="2" t="s">

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA5E75D-E804-4296-8FE5-1F4B9F601354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC13388-625F-42E6-8DEA-623D22ABD1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的攻击为你提供10移动速度，可无限叠加。获得相当于你10%移动速度的攻击速度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对敌人造成伤害时还会对其附近500码内最近的2个敌人造成相当于这次伤害30%的真实伤害。
 当前已造成额外伤害：{0:F1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,10 +342,6 @@
   <si>
     <t>体型减小75%，获得30%总移动速度加成，敌人的体型每比你大5%，则对其造成2%额外真实伤害。
 当前已造成额外伤害：{0:F1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的攻击为你提供10移动速度，可无限叠加，持续5秒。获得{0:P1}=(10%&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;)的攻击速度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,6 +415,14 @@
   </si>
   <si>
     <t>每秒对附近的敌人施加一层可无限叠加的灼烧，持续5秒，每秒造成你0.35%最大生命值的魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的攻击为你提供5移动速度，可无限叠加，持续5秒。获得{0:P1}=(10%&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;)的攻击速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的攻击为你提供5移动速度，可无限叠加。获得相当于你10%移动速度的攻击速度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +788,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -842,17 +842,17 @@
       <c r="O1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>71</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -901,17 +901,17 @@
       <c r="O2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>70</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,7 +1001,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>46</v>
@@ -1022,16 +1022,16 @@
         <v>69</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1057,40 +1057,40 @@
         <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,7 +1143,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>32</v>

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC13388-625F-42E6-8DEA-623D22ABD1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862084F1-E0EB-4424-9E59-AE9A50A14002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -785,10 +785,10 @@
   <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="R2" activeCellId="1" sqref="R1 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -848,7 +848,7 @@
       <c r="Q1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>82</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -907,7 +907,7 @@
       <c r="Q2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="S2" s="2" t="s">

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862084F1-E0EB-4424-9E59-AE9A50A14002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F0CAD-D7C2-46CE-8166-F8922D38FC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你获得使你的各个技能的冷却时间减少其15%的剩余冷却时间的攻击特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击时使你的各个技能的冷却时间减少其15%的剩余冷却时间。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,6 +419,10 @@
   </si>
   <si>
     <t>你的攻击为你提供5移动速度，可无限叠加。获得相当于你10%移动速度的攻击速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你获得使你的各个技能的冷却时间减少其15%的剩余冷却时间（最少为1秒）的攻击特效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +788,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R2" activeCellId="1" sqref="R1 R2"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1001,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>46</v>
@@ -1022,7 +1022,7 @@
         <v>69</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>78</v>
@@ -1031,7 +1031,7 @@
         <v>83</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1060,10 +1060,10 @@
         <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>52</v>
@@ -1078,10 +1078,10 @@
         <v>75</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>79</v>
@@ -1090,7 +1090,7 @@
         <v>24</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7F0CAD-D7C2-46CE-8166-F8922D38FC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F965FAFB-39A8-413B-A417-EAE8B758C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -851,7 +851,7 @@
       <c r="R1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
       <c r="R2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/HexConfig.xlsx
+++ b/Assets/Resources/Configs/HexConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F965FAFB-39A8-413B-A417-EAE8B758C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D255B-96B8-48A1-AF2B-961DE179F0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得1000金币并降低所有锻造器的价格。
-棱彩锻造器数量：-1500
-传说锻造器数量：-500
-属性锻造器数量：-100
-从锻造器中获得的装备的售价降低500金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RepeatingStrike</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,6 +415,13 @@
   </si>
   <si>
     <t>你获得使你的各个技能的冷却时间减少其15%的剩余冷却时间（最少为1秒）的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1000金币并降低所有锻造器的价格。
+棱彩锻造器数量：-1000
+传说锻造器数量：-500
+属性锻造器数量：-100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +784,10 @@
   <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.125" defaultRowHeight="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -804,55 +803,55 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -863,55 +862,55 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,235 +979,235 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
